--- a/dados.xlsx
+++ b/dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\Research_UFRGS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448E1271-5D04-44DD-B745-BC7B86E3ACCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34DBD778-273E-431E-8428-CFD24004B788}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="632">
   <si>
     <t>code</t>
   </si>
@@ -1523,9 +1523,6 @@
     <t>Apparent Consumption - oil products - average - quantity/day Consumption and sales 5 ANP</t>
   </si>
   <si>
-    <t>Apparent Consumption - gasoline - average - quantity/day Consumption and sales 5 ANP</t>
-  </si>
-  <si>
     <t>Apparent Consumption - LPG - average - quantity/day Consumption and sales 5 ANP</t>
   </si>
   <si>
@@ -1541,9 +1538,6 @@
     <t>Production - petroleum - average - quantity/day Production 5 ANP</t>
   </si>
   <si>
-    <t>Restricted means of payment - M1 - demand deposits - average Currency and credit 5 Bacen</t>
-  </si>
-  <si>
     <t>DLSP - net external debt - states and municipalities Public Finances 6 Bacen</t>
   </si>
   <si>
@@ -1577,12 +1571,6 @@
     <t>IPCA - free prices - durable - rate of change Prices 2 Bacen</t>
   </si>
   <si>
-    <t>IPCA - free prices - non-durable goods - rate of change Prices 1 Bacen</t>
-  </si>
-  <si>
-    <t>IPCA - free prices - semi-durable goods - rate of change Prices 2 Bacen</t>
-  </si>
-  <si>
     <t>IPCA - free prices - services - rate of change Prices 2 Bacen</t>
   </si>
   <si>
@@ -1640,9 +1628,6 @@
     <t>Net fixed capital stock (2010 prices) Capital stock 6 IPEA</t>
   </si>
   <si>
-    <t>Electric energy - consumption - trade - quantity Consumption and sales 5 Eletrobras</t>
-  </si>
-  <si>
     <t>Electric energy - consumption - industry - quantity Consumption and sales 5 Eletrobras</t>
   </si>
   <si>
@@ -1763,45 +1748,15 @@
     <t>Real minimum wage Salary and income 5 IPEA</t>
   </si>
   <si>
-    <t>Exchange rate - real effective - IPA-EP-DI - imports - durable goods Exchange 5 IPEA</t>
-  </si>
-  <si>
-    <t>Exchange rate - real effective - IPA-EP-DI - imports - non-durable goods Exchange 5 IPEA</t>
-  </si>
-  <si>
-    <t>Exchange rate - real effective - IPA-EP-DI - imports - intermediate goods Exchange 5 IPEA</t>
-  </si>
-  <si>
-    <t>Exchange rate - real effective - IPA-EP-DI - imports - capital goods Exchange 5 IPEA</t>
-  </si>
-  <si>
     <t>Exchange rate - real effective - IPA-EP-DI - imports - fuel Exchange 5 IPEA</t>
   </si>
   <si>
-    <t>Exchange rate - real effective - IPA-DI - imports - index (average 2010 = 100) Exchange 5 IPEA</t>
-  </si>
-  <si>
-    <t>Exchange rate - real effective - INPC - imports - index (average 2010 = 100) Exchange 5 IPEA</t>
-  </si>
-  <si>
     <t>Exchange rate - real effective - Weighted IPA - exports - basic Exchange 5 IPEA</t>
   </si>
   <si>
-    <t>Exchange rate - real effective - IPA-DI-Origin - exports - manufactured Exchange 5 IPEA</t>
-  </si>
-  <si>
-    <t>Exchange rate - real effective - INPC - exports - manufactured Exchange 5 IPEA</t>
-  </si>
-  <si>
-    <t>Exchange rate - real effective - IPA-DI - Origin - exports - semimanufactured Exchange 5 IPEA</t>
-  </si>
-  <si>
     <t>Exchange rate - real effective - IPA-DI - exports - index (average 2010 = 100) Exchange 5 IPEA</t>
   </si>
   <si>
-    <t>Exchange rate - real effective - INPC - exports - index (average 2010 = 100) Exchange 5 IPEA</t>
-  </si>
-  <si>
     <t>IGP-10 - general - index (aug. 1994 = 100) Prices 5 FGV/Conj. Econ.</t>
   </si>
   <si>
@@ -1835,9 +1790,6 @@
     <t>INPC - personal expenses - rate of change Prices 2 IBGE/SNIPC</t>
   </si>
   <si>
-    <t>INPC - communication - rate of change Prices 2 IBGE/SNIPC</t>
-  </si>
-  <si>
     <t>INPC - education, reading and stationery - rate of change Prices 2 IBGE/SNIPC</t>
   </si>
   <si>
@@ -1923,6 +1875,51 @@
   </si>
   <si>
     <t>Tax on rural land property (ITR) - gross revenue Public Finances 2 Min. Economi</t>
+  </si>
+  <si>
+    <t>Restricted means of payment - M1</t>
+  </si>
+  <si>
+    <t>INPC - communication - rate of change</t>
+  </si>
+  <si>
+    <t>IPCA - free prices - non-durable goods</t>
+  </si>
+  <si>
+    <t>Electric energy - consumption - trade - quantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apparent Consumption - gas - avg - quantity/day </t>
+  </si>
+  <si>
+    <t>Exch rate - real eff- imports - non-durable goods</t>
+  </si>
+  <si>
+    <t>Exch rate - real eff - imports - durable goods</t>
+  </si>
+  <si>
+    <t>Exch rate - real eff- imports - intermediate goods</t>
+  </si>
+  <si>
+    <t>Exch rate - real eff- imports - capital goods</t>
+  </si>
+  <si>
+    <t>Exch rate - real eff- INPC - imports - all</t>
+  </si>
+  <si>
+    <t>Exch rate - real eff- IPA - imports - all</t>
+  </si>
+  <si>
+    <t>Exch rate - real eff- INPC - exports - all</t>
+  </si>
+  <si>
+    <t>Exch rate - real eff- IPA-DI - exports - manufact.</t>
+  </si>
+  <si>
+    <t>Exch rate - real eff- INPC - exports - manufact.</t>
+  </si>
+  <si>
+    <t>Exch rate - real eff- IPA-DI - exports - semimanufact.</t>
   </si>
 </sst>
 </file>
@@ -8476,8 +8473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE8923B-B8C7-4B96-BF12-D69903EC4FCF}">
   <dimension ref="A1:A140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="H88" sqref="H88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8504,682 +8501,682 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>499</v>
+        <v>621</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>505</v>
+        <v>617</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>517</v>
+        <v>619</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>518</v>
+        <v>619</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>538</v>
+        <v>620</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>579</v>
+        <v>623</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>580</v>
+        <v>622</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>581</v>
+        <v>624</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>582</v>
+        <v>625</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>584</v>
+        <v>627</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>585</v>
+        <v>626</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>587</v>
+        <v>629</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>588</v>
+        <v>630</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>589</v>
+        <v>631</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>591</v>
+        <v>628</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>594</v>
+        <v>579</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>595</v>
+        <v>580</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>596</v>
+        <v>581</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>597</v>
+        <v>582</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>598</v>
+        <v>583</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>599</v>
+        <v>584</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>600</v>
+        <v>585</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>601</v>
+        <v>586</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>602</v>
+        <v>587</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>603</v>
+        <v>618</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>605</v>
+        <v>589</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>608</v>
+        <v>592</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>609</v>
+        <v>593</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>610</v>
+        <v>594</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>611</v>
+        <v>595</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>612</v>
+        <v>596</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>613</v>
+        <v>597</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>614</v>
+        <v>598</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>616</v>
+        <v>600</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>617</v>
+        <v>601</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>618</v>
+        <v>602</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>620</v>
+        <v>604</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>621</v>
+        <v>605</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>623</v>
+        <v>607</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>624</v>
+        <v>608</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>626</v>
+        <v>610</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>627</v>
+        <v>611</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>628</v>
+        <v>612</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>629</v>
+        <v>613</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>630</v>
+        <v>614</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>631</v>
+        <v>615</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>632</v>
+        <v>616</v>
       </c>
     </row>
   </sheetData>
